--- a/DocumentApi.xlsx
+++ b/DocumentApi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marine/Desktop/OpenClassroom/P7 react/MarineLefebvre_7_17062022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261E5FAC-7F4C-3B41-B5AD-5234C992F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BE79B-BE4C-E240-82CC-4CF3AC3B536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20560" xr2:uid="{E84B8463-C3F2-954C-8F65-F135291439A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{E84B8463-C3F2-954C-8F65-F135291439A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Endpoint</t>
   </si>
   <si>
-    <t>Parmeters</t>
-  </si>
-  <si>
     <t>Reponse</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">htp 200, retourne une liste de Post du plus récent au plus ancien </t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,113 +510,113 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
